--- a/medicine/Pharmacie/Péginésatide/Péginésatide.xlsx
+++ b/medicine/Pharmacie/Péginésatide/Péginésatide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9gin%C3%A9satide</t>
+          <t>Péginésatide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le péginésatide est une molécule activatrice du récepteur à l'érythropoïétine et est utilisé pour lutter contre l'anémie au cours de l'insuffisance rénale chronique.
 La molécule n'est pas un dérivé de l'érythropoïétine et n'a pas d'homologie avec cette dernière.
-Elle se donne en une injection mensuelle[1], ce qui la distingue des autres érythropoïétines qui sont administrées à plus brefs intervalles.
-Elle est aussi efficace que les autres érythropoïétines dans l'insuffisance rénale chronique dialysée[2] ou non[3].
+Elle se donne en une injection mensuelle, ce qui la distingue des autres érythropoïétines qui sont administrées à plus brefs intervalles.
+Elle est aussi efficace que les autres érythropoïétines dans l'insuffisance rénale chronique dialysée ou non.
 Elle a été retirée du marché par les laboratoires producteurs en février 2013, en raison de réactions d'hypersensibilité grave, de type anaphylactique, ayant entraîné 0,02 % de décès après la première injection[réf. nécessaire].
 </t>
         </is>
